--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value306.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value306.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.145842811731807</v>
+        <v>0.7317783236503601</v>
       </c>
       <c r="B1">
-        <v>1.168642700145684</v>
+        <v>1.142157316207886</v>
       </c>
       <c r="C1">
-        <v>1.268439390207172</v>
+        <v>2.477017641067505</v>
       </c>
       <c r="D1">
-        <v>1.82828633537933</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>3.8580862274482</v>
+        <v>1.815943479537964</v>
       </c>
     </row>
   </sheetData>
